--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,96 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم محمد عبدالمجيد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسراء محمد ابراهيم حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد أحمد عبدالحميد ابراهيم النادى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى محمد سعد قايتباى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mohamed Saad Kaitbay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيله احمد على حنفى محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علياء محمد عبدالغني محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alyaa Mohamed Abdelghani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فرح احمد كمال حامد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farah Ahmed Kamal Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ماهي تامر حسن ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahy tamer hassan Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد حسين محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
+  </x:si>
+  <x:si>
+    <x:t>2220010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حسانين احمد على السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hassanein Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -107,21 +197,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -132,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E2" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -432,17 +536,17 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T2"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.360625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="5.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="25.990625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="39.830625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -510,11 +614,324 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:20">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="A2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="3">
+        <x:v>45927.414599537</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s"/>
+      <x:c r="G2" s="2" t="s"/>
+      <x:c r="H2" s="2" t="s"/>
+      <x:c r="I2" s="2" t="s"/>
+      <x:c r="J2" s="2" t="s"/>
+      <x:c r="K2" s="2" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
+      <x:c r="M2" s="2" t="s"/>
+      <x:c r="N2" s="2" t="s"/>
+      <x:c r="O2" s="2" t="s"/>
+      <x:c r="P2" s="2" t="s"/>
+      <x:c r="Q2" s="2" t="s"/>
+      <x:c r="R2" s="2" t="s"/>
+      <x:c r="S2" s="2" t="s"/>
+      <x:c r="T2" s="2" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:20">
+      <x:c r="A3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="3">
+        <x:v>45927.4288304051</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s"/>
+      <x:c r="G3" s="2" t="s"/>
+      <x:c r="H3" s="2" t="s"/>
+      <x:c r="I3" s="2" t="s"/>
+      <x:c r="J3" s="2" t="s"/>
+      <x:c r="K3" s="2" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
+      <x:c r="M3" s="2" t="s"/>
+      <x:c r="N3" s="2" t="s"/>
+      <x:c r="O3" s="2" t="s"/>
+      <x:c r="P3" s="2" t="s"/>
+      <x:c r="Q3" s="2" t="s"/>
+      <x:c r="R3" s="2" t="s"/>
+      <x:c r="S3" s="2" t="s"/>
+      <x:c r="T3" s="2" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:20">
+      <x:c r="A4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="3">
+        <x:v>45927.4144831018</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s"/>
+      <x:c r="G4" s="2" t="s"/>
+      <x:c r="H4" s="2" t="s"/>
+      <x:c r="I4" s="2" t="s"/>
+      <x:c r="J4" s="2" t="s"/>
+      <x:c r="K4" s="2" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
+      <x:c r="M4" s="2" t="s"/>
+      <x:c r="N4" s="2" t="s"/>
+      <x:c r="O4" s="2" t="s"/>
+      <x:c r="P4" s="2" t="s"/>
+      <x:c r="Q4" s="2" t="s"/>
+      <x:c r="R4" s="2" t="s"/>
+      <x:c r="S4" s="2" t="s"/>
+      <x:c r="T4" s="2" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:20">
+      <x:c r="A5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="3">
+        <x:v>45927.4185890046</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s"/>
+      <x:c r="H5" s="2" t="s"/>
+      <x:c r="I5" s="2" t="s"/>
+      <x:c r="J5" s="2" t="s"/>
+      <x:c r="K5" s="2" t="s"/>
+      <x:c r="L5" s="2" t="s"/>
+      <x:c r="M5" s="2" t="s"/>
+      <x:c r="N5" s="2" t="s"/>
+      <x:c r="O5" s="2" t="s"/>
+      <x:c r="P5" s="2" t="s"/>
+      <x:c r="Q5" s="2" t="s"/>
+      <x:c r="R5" s="2" t="s"/>
+      <x:c r="S5" s="2" t="s"/>
+      <x:c r="T5" s="2" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:20">
+      <x:c r="A6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="3">
+        <x:v>45927.4151642014</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s"/>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s"/>
+      <x:c r="J6" s="2" t="s"/>
+      <x:c r="K6" s="2" t="s"/>
+      <x:c r="L6" s="2" t="s"/>
+      <x:c r="M6" s="2" t="s"/>
+      <x:c r="N6" s="2" t="s"/>
+      <x:c r="O6" s="2" t="s"/>
+      <x:c r="P6" s="2" t="s"/>
+      <x:c r="Q6" s="2" t="s"/>
+      <x:c r="R6" s="2" t="s"/>
+      <x:c r="S6" s="2" t="s"/>
+      <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E7" s="3">
+        <x:v>45927.4163863426</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45927.4149992245</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45927.4153118403</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45927.4257630787</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1230170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جميله حاتم السيد احمد محمد على فرج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gamila Hatem ElSayed Ahmed Mohamed Aly Farag</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210351</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Alyaa Mohamed Abdelghani</x:t>
   </x:si>
   <x:si>
+    <x:t>4240032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر محمد حمزه عثمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Mohamed Hamza Osman</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230162</x:t>
   </x:si>
   <x:si>
@@ -112,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Malak Mohamed Hussein Mohamed </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يمني محمود أبو الفتوح عويضه</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Youmna Mahmoud Abo Alfotoh </x:t>
   </x:si>
   <x:si>
     <x:t>2220010</x:t>
@@ -236,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -544,8 +571,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="25.990625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="39.830625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.910625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -691,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4144831018</x:v>
+        <x:v>45927.9468239931</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,7 +750,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4185890046</x:v>
+        <x:v>45927.4144831018</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45927.4185890046</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4163863426</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45927.4163863426</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45927.6754062847</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +959,102 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.4257630787</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.9418362269</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,24 @@
     <x:t>Ebrahim Mohamed Abdel Magied Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>2210002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حسن بحر يوسف محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AHMED HASSAN BAHR YOUSSEF MAHMOUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد رضا احمد عبدالعليم حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Reda Ahmed Abdelaleem Hussain</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240006</x:t>
   </x:si>
   <x:si>
@@ -69,6 +87,15 @@
     <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
   </x:si>
   <x:si>
+    <x:t>4240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد محمد فرغل محمد فرغل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Mohamed Farghel Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230195</x:t>
   </x:si>
   <x:si>
@@ -121,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Mahy tamer hassan Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد جميل اسماعيل اسماعيل العباسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Jameel Ismail Ismail AlAbasy</x:t>
   </x:si>
   <x:si>
     <x:t>1230265</x:t>
@@ -263,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -686,7 +722,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45927.4288304051</x:v>
+        <x:v>45928.6618298611</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -718,7 +754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.9468239931</x:v>
+        <x:v>45928.6174656597</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -750,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4144831018</x:v>
+        <x:v>45927.4288304051</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4185890046</x:v>
+        <x:v>45927.9468239931</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45927.4144831018</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4163863426</x:v>
+        <x:v>45928.6166783565</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.6754062847</x:v>
+        <x:v>45927.4185890046</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45927.4163863426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45927.6754062847</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.9418362269</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1091,134 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45928.5861054051</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45927.4257630787</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45927.9418362269</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed Reda Ahmed Abdelaleem Hussain</x:t>
   </x:si>
   <x:si>
+    <x:t>1230011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عطاى كمال كمال الدين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed attay kamal kamalelden</x:t>
+  </x:si>
+  <x:si>
     <x:t>4240006</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Esraa Mohamed Ibrahim Hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>4240009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اياد عادل محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eyad Adel Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230170</x:t>
   </x:si>
   <x:si>
@@ -85,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad Ahmed Abdelhamid Ibrahim Elnady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد خالد عزت عبد المنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad khaled Ezzat Abdel Moniem</x:t>
   </x:si>
   <x:si>
     <x:t>4240018</x:t>
@@ -299,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4288304051</x:v>
+        <x:v>45928.8371653588</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.9468239931</x:v>
+        <x:v>45927.4288304051</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4144831018</x:v>
+        <x:v>45928.8355562153</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.6166783565</x:v>
+        <x:v>45927.9468239931</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4185890046</x:v>
+        <x:v>45927.4144831018</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4151642014</x:v>
+        <x:v>45928.7406275463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4163863426</x:v>
+        <x:v>45928.6166783565</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.6754062847</x:v>
+        <x:v>45927.4185890046</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45927.4151642014</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45927.4163863426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45928.5861054051</x:v>
+        <x:v>45927.6754062847</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.9418362269</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45928.5861054051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1246,102 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45927.4257630787</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45927.9418362269</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -1348,11 +1348,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : ----- Time : Tuesday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : ----- Time : Tuesday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : ----- Time : Tuesday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Entrepreneurship in Healthcare Industry (SBES251) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/SBES251_Tutorial-35957.xlsx
+++ b/downloaded_files/SBES251_Tutorial-35957.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Sohaila Ahmed Aly Hanafy Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاليه طارق عمر طلبه زايد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alia Tarek Omr Tolba Zayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230070</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4163863426</x:v>
+        <x:v>45934.8796143866</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.6754062847</x:v>
+        <x:v>45927.4163863426</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4149992245</x:v>
+        <x:v>45927.6754062847</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4153118403</x:v>
+        <x:v>45927.4149992245</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.5861054051</x:v>
+        <x:v>45927.4153118403</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4257630787</x:v>
+        <x:v>45928.5861054051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.9418362269</x:v>
+        <x:v>45927.4257630787</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4155155093</x:v>
+        <x:v>45927.9418362269</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45927.4155155093</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
